--- a/data/trans_bre/P0901-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.822822287173064</v>
+        <v>5.961140975217269</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.313621339084115</v>
+        <v>7.817924569427606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.670939568319339</v>
+        <v>9.19603146299044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.37725342731284</v>
+        <v>10.06692099900436</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3013704185854754</v>
+        <v>0.3125129145455903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3037663560049915</v>
+        <v>0.2889298079006264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3944548085701049</v>
+        <v>0.3533950350069388</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3348432191650741</v>
+        <v>0.3099129682666859</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.74723168572736</v>
+        <v>12.52389338238058</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.30303099042623</v>
+        <v>15.8149384943588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.45011010715089</v>
+        <v>18.66537415401003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.20163371882488</v>
+        <v>19.16398193153215</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8152481202067471</v>
+        <v>0.8015664752014292</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7264536054646566</v>
+        <v>0.7030262801891175</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8997480663045997</v>
+        <v>0.882788490764325</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7517447932458924</v>
+        <v>0.7429375103934056</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.452006434175572</v>
+        <v>2.706916874089235</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.645818496541667</v>
+        <v>2.732432242754587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.010774409927762</v>
+        <v>4.001166628355195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.979576837168403</v>
+        <v>1.769742059348657</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.379518783804062</v>
+        <v>0.4164360007059125</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3343604571175129</v>
+        <v>0.3598525935649746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.498595512150596</v>
+        <v>0.469674088278644</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1551942819157109</v>
+        <v>0.142576653539767</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.455422245206142</v>
+        <v>6.426720858746269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.536536647456713</v>
+        <v>6.748688795167849</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.997688107663866</v>
+        <v>7.818812765136141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.758772615942052</v>
+        <v>5.878226499659817</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.317593101243504</v>
+        <v>1.286943947242502</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.04192603175146</v>
+        <v>1.092911319717663</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.27224992808734</v>
+        <v>1.216237579411582</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5521840948643563</v>
+        <v>0.5604371070188735</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.531531907513628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.728486945831564</v>
+        <v>2.728486945831567</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.013352869321254</v>
@@ -849,7 +849,7 @@
         <v>0.8204321837307312</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3556329704173313</v>
+        <v>0.3556329704173318</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.20184101105344</v>
+        <v>1.44563248371137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.058756160412099</v>
+        <v>-1.966795477103398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9090695549250122</v>
+        <v>1.078219739844585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07395706109325202</v>
+        <v>-0.2415358051591175</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2127840658216804</v>
+        <v>0.2051776559288274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.258321145244354</v>
+        <v>-0.2658371231512899</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0982086379381583</v>
+        <v>0.1302494924962324</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.005294575669294315</v>
+        <v>-0.02096597025270692</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.850184461087149</v>
+        <v>7.912866515467232</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.020216996175969</v>
+        <v>5.351496377231997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.136160066453012</v>
+        <v>8.165902551665832</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.676113723536153</v>
+        <v>5.248210735703871</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.518246153971438</v>
+        <v>2.457868801882133</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.106934760461585</v>
+        <v>1.169586996565407</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.999659501435064</v>
+        <v>1.958188753360999</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9272383331643517</v>
+        <v>0.873208166532742</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.588010806083687</v>
+        <v>5.782426680923313</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.927994772130575</v>
+        <v>7.016948238533846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.111819416468107</v>
+        <v>7.247464118905052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.288400230578777</v>
+        <v>5.321642103135328</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5755110769234731</v>
+        <v>0.5933970436061536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5347870390439029</v>
+        <v>0.550497680550603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6214755605976495</v>
+        <v>0.6393454033603864</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3549327008797956</v>
+        <v>0.3560548413649153</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.949461623966478</v>
+        <v>8.846152796312298</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.56269891108822</v>
+        <v>10.62883816706432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.6608672198122</v>
+        <v>10.77911691229451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.578507434416592</v>
+        <v>8.588579467291378</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.093725343462644</v>
+        <v>1.060371148844281</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9511874470484613</v>
+        <v>0.9570996281978972</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.112080001131093</v>
+        <v>1.089879880688868</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6755240662115701</v>
+        <v>0.6658798236460652</v>
       </c>
     </row>
     <row r="16">
